--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-B-C.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-B-C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A6223F-DF12-435C-B239-7232E1143E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D618E4C8-462F-4986-9621-A1752ADB7957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="0" windowWidth="31200" windowHeight="23385" firstSheet="3" activeTab="13" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="1" activeTab="3" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="CHICHARO" sheetId="15" r:id="rId13"/>
     <sheet name="CHILE SECO" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -49,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="37">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -155,6 +150,12 @@
   <si>
     <t>Promedio 1974/79</t>
   </si>
+  <si>
+    <t>Promedio 1932/34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promedio 1971/74 </t>
+  </si>
 </sst>
 </file>
 
@@ -224,10 +225,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,14 +549,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -571,12 +572,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -584,17 +585,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -628,7 +629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -658,7 +659,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -690,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -722,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -754,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -786,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -818,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -886,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -920,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -956,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -990,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1670,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2208,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2316,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -3108,13 +3109,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -3134,12 +3135,12 @@
       <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3147,17 +3148,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3221,7 +3222,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3287,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3331,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3397,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3595,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4343,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4711,7 +4712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4813,7 +4814,7 @@
         <v>-1013</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4847,16 +4848,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4878,12 +4879,12 @@
       <selection pane="bottomLeft" activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4891,17 +4892,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4965,7 +4966,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4987,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5009,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5075,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5251,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5273,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -5339,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -5383,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -5449,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -5537,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5625,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5823,7 +5824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5845,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5933,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -5977,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6087,7 +6088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6109,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -6153,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6175,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -6321,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -6357,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -6393,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -6537,14 +6538,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
       <c r="B71" s="3">
         <v>3228</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="9">
         <v>22910</v>
       </c>
       <c r="D71" s="3">
@@ -6573,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -6609,13 +6610,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -6635,12 +6636,12 @@
       <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -6648,17 +6649,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -6722,7 +6723,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -6786,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -6850,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -6882,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -6948,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7124,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7160,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7340,7 +7341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -7556,7 +7557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7590,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7726,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7930,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -7964,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8068,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8174,7 +8175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8786,7 +8787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8930,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8998,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -9136,13 +9137,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -9157,17 +9158,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CCF344-1593-48FB-AC0D-3493C53C38CC}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U68" sqref="U68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9175,17 +9176,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -9219,7 +9220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -9249,7 +9250,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9313,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -9449,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9521,7 +9522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -9661,7 +9662,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -9731,7 +9732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9767,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9907,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -10145,7 +10146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10451,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -10485,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -10587,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -10618,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -10690,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -10726,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10798,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10870,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10942,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10978,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -11050,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -11086,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -11122,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11230,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11266,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11302,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -11338,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11446,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11482,7 +11483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11518,7 +11519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -11554,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11626,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -11662,13 +11663,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -11688,12 +11689,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11701,17 +11702,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11745,7 +11746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11775,7 +11776,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11797,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11841,7 +11842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11885,7 +11886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -11907,7 +11908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11929,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11951,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11973,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11995,7 +11996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -12017,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -12039,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12061,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -12083,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -12105,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -12127,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -12149,7 +12150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -12171,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12193,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12215,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12237,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12259,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12281,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -12303,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12325,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12347,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12369,7 +12370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12391,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12413,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -12435,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12457,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12479,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12501,7 +12502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12523,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -12567,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12589,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12611,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12633,7 +12634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12655,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12677,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -12699,7 +12700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12721,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12743,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12787,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -12831,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12853,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12875,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12897,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12941,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -12963,7 +12964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13007,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13029,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13051,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13073,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13117,7 +13118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13161,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13183,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13205,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -13227,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13249,7 +13250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13271,7 +13272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13293,13 +13294,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -13314,16 +13315,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4098C5CC-EF01-455F-A6AD-A947B3E312DB}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13331,17 +13332,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13375,7 +13376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13405,7 +13406,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13427,7 +13428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13449,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13493,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13515,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -13537,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13559,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13581,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13615,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13683,9 +13684,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3">
         <v>33</v>
@@ -13717,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13747,7 +13748,7 @@
         <v>6.0000000000002274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13815,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -13883,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -13951,7 +13952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -13985,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14019,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14053,7 +14054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14083,7 +14084,7 @@
         <v>8.0000000000381988E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14149,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14181,7 +14182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14213,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14245,7 +14246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14277,7 +14278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14341,7 +14342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14405,7 +14406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14437,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14469,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -14501,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14535,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14569,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14599,7 +14600,7 @@
         <v>-7.9999999999813554E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14629,7 +14630,7 @@
         <v>4.9999999999954525E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14663,7 +14664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -14697,7 +14698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14731,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14765,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -14833,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -14901,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -14935,7 +14936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15071,7 +15072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -15105,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15139,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15173,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15207,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15241,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15275,7 +15276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -15309,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15339,7 +15340,7 @@
         <v>-9.5999999999548891E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15369,7 +15370,7 @@
         <v>-0.34399999999914144</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15399,7 +15400,7 @@
         <v>-6.099999999969441E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15429,7 +15430,7 @@
         <v>-4.0000000000873115E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15459,7 +15460,7 @@
         <v>-24.205999999998312</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -15489,7 +15490,7 @@
         <v>0.24799999999959255</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>-5.6000000000494765E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15549,7 +15550,7 @@
         <v>0.15099999999983993</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15579,39 +15580,39 @@
         <v>0.81600000000071304</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J75" s="6"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -15628,16 +15629,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94774D4-03FA-49FD-8188-D0B81ECCECF4}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15645,17 +15646,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15719,7 +15720,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15741,7 +15742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15763,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15785,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -15807,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -15829,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -15851,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -15873,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -15895,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -15917,7 +15918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -15939,7 +15940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -15961,7 +15962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -15983,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16027,7 +16028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16049,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16071,7 +16072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16093,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -16115,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16137,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16159,7 +16160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16181,7 +16182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16203,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16225,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -16247,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16269,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16291,7 +16292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16335,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -16379,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16401,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16423,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16445,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16467,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16489,7 +16490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -16511,7 +16512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16533,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16555,7 +16556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16577,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16599,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16621,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -16643,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16665,7 +16666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16687,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16709,7 +16710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16731,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -16775,7 +16776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -16797,7 +16798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -16841,7 +16842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -16885,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -16907,7 +16908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -16929,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -17001,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17037,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17073,9 +17074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3">
         <v>214</v>
@@ -17109,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17145,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17217,7 +17218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17253,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17289,7 +17290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17361,7 +17362,7 @@
         <v>-474</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17397,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17433,13 +17434,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17458,12 +17459,12 @@
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17471,17 +17472,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17515,7 +17516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17545,7 +17546,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17567,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17589,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17611,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17633,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17655,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -17677,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17699,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -17721,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -17743,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -17765,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -17787,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -17809,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -17831,7 +17832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -17853,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -17875,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -17897,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -17919,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -17941,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -17985,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18029,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18051,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -18073,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18095,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18117,7 +18118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18139,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18183,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -18205,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18227,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18249,7 +18250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18271,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18293,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18315,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -18337,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -18359,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -18381,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -18403,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -18425,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -18447,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -18469,7 +18470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -18491,7 +18492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -18513,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -18535,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -18557,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -18579,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -18601,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -18623,7 +18624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -18645,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -18667,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -18689,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -18711,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -18733,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -18755,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -18777,7 +18778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -18799,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -18821,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -18855,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1975</v>
       </c>
@@ -18889,7 +18890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1976</v>
       </c>
@@ -18923,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1977</v>
       </c>
@@ -18957,7 +18958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1978</v>
       </c>
@@ -18991,7 +18992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1979</v>
       </c>
@@ -19025,7 +19026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
@@ -19059,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1980</v>
       </c>
@@ -19093,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1981</v>
       </c>
@@ -19127,7 +19128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1982</v>
       </c>
@@ -19161,13 +19162,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
   </sheetData>
@@ -19186,12 +19187,12 @@
       <selection activeCell="F41" sqref="F41:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -19199,17 +19200,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -19243,7 +19244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -19273,7 +19274,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -19305,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -19337,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -19407,7 +19408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -19441,7 +19442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -19477,7 +19478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -19513,7 +19514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -19547,7 +19548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -19581,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -19617,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -19651,7 +19652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -19687,7 +19688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -19719,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -19753,7 +19754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -19787,7 +19788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -19819,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -19851,7 +19852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -19887,7 +19888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -19921,7 +19922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -19955,7 +19956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -19991,7 +19992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -20025,7 +20026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -20059,7 +20060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -20095,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -20131,7 +20132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -20167,7 +20168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -20201,7 +20202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -20235,7 +20236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -20269,7 +20270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -20305,7 +20306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -20339,7 +20340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -20373,7 +20374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -20407,7 +20408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -20441,7 +20442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -20475,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -20509,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -20543,7 +20544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -20579,7 +20580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -20615,7 +20616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -20651,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -20687,7 +20688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -20723,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -20759,7 +20760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -20795,7 +20796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -20831,7 +20832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -20867,7 +20868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -20903,7 +20904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -20939,7 +20940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -20975,7 +20976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21011,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21047,7 +21048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21083,7 +21084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21119,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -21155,7 +21156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21191,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21227,7 +21228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21263,7 +21264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21299,7 +21300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21335,7 +21336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -21371,7 +21372,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -21407,7 +21408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -21443,7 +21444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -21479,7 +21480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -21515,7 +21516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -21551,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -21587,7 +21588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -21623,7 +21624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -21659,7 +21660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -21695,13 +21696,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -21720,12 +21721,12 @@
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -21733,17 +21734,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -21777,7 +21778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -21807,7 +21808,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -21839,7 +21840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -21871,7 +21872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -21903,7 +21904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -21935,7 +21936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -21967,7 +21968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -21999,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -22031,7 +22032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -22063,7 +22064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -22095,7 +22096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -22127,7 +22128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -22159,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -22191,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -22223,7 +22224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -22255,7 +22256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -22287,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -22319,7 +22320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -22351,7 +22352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -22383,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -22415,7 +22416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -22447,7 +22448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -22479,7 +22480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -22511,7 +22512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -22543,7 +22544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -22575,7 +22576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -22607,7 +22608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -22639,7 +22640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -22671,7 +22672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -22703,7 +22704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -22735,7 +22736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -22767,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -22799,7 +22800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -22831,7 +22832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -22863,7 +22864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -22895,7 +22896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -22927,7 +22928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -22959,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -22991,7 +22992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -23023,7 +23024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -23057,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -23091,7 +23092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -23125,7 +23126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -23159,7 +23160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -23195,7 +23196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -23231,7 +23232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -23267,7 +23268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -23301,7 +23302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -23335,7 +23336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -23371,7 +23372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -23407,7 +23408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -23443,7 +23444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -23477,7 +23478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -23513,7 +23514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -23547,7 +23548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -23583,7 +23584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -23617,7 +23618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -23651,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -23687,7 +23688,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -23723,7 +23724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -23757,7 +23758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -23793,7 +23794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -23827,7 +23828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -23861,7 +23862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -23893,7 +23894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -23925,7 +23926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -23957,7 +23958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -23991,7 +23992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -24023,7 +24024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -24055,7 +24056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -24087,13 +24088,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -24112,12 +24113,12 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -24125,17 +24126,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -24169,7 +24170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -24199,7 +24200,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -24221,7 +24222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -24243,7 +24244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -24265,7 +24266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -24287,7 +24288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -24309,7 +24310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -24331,7 +24332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -24353,7 +24354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -24375,7 +24376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -24397,7 +24398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -24419,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -24441,7 +24442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -24463,7 +24464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -24485,7 +24486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -24507,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -24529,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -24551,7 +24552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -24573,7 +24574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -24595,7 +24596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -24617,7 +24618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -24639,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -24661,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -24683,7 +24684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -24705,7 +24706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -24727,7 +24728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -24749,7 +24750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -24771,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -24793,7 +24794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -24815,7 +24816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -24837,7 +24838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -24859,7 +24860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -24881,7 +24882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -24903,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -24925,7 +24926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -24947,7 +24948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -24969,7 +24970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -24991,7 +24992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -25013,7 +25014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -25035,7 +25036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -25057,7 +25058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -25079,7 +25080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -25101,7 +25102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -25123,7 +25124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -25155,7 +25156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -25187,7 +25188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -25219,7 +25220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -25251,7 +25252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -25283,7 +25284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -25315,7 +25316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -25349,7 +25350,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -25383,7 +25384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -25417,7 +25418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -25451,7 +25452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -25483,7 +25484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -25517,7 +25518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -25549,7 +25550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -25583,7 +25584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -25617,7 +25618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -25651,7 +25652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -25683,7 +25684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -25717,7 +25718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -25751,7 +25752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -25785,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -25819,7 +25820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -25855,7 +25856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -25891,7 +25892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -25927,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -25961,7 +25962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -25995,7 +25996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -26031,13 +26032,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -26056,12 +26057,12 @@
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -26069,17 +26070,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -26113,7 +26114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -26143,7 +26144,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -26177,7 +26178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -26211,7 +26212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -26245,7 +26246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -26279,7 +26280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -26313,7 +26314,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -26347,7 +26348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -26383,7 +26384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -26419,7 +26420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -26453,7 +26454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -26487,7 +26488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -26523,7 +26524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -26559,7 +26560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -26593,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -26627,7 +26628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -26661,7 +26662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -26695,7 +26696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -26729,7 +26730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -26763,7 +26764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -26797,7 +26798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -26831,7 +26832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -26865,7 +26866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -26899,7 +26900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -26933,7 +26934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -26967,7 +26968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -27001,7 +27002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -27035,7 +27036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -27069,7 +27070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -27103,7 +27104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -27137,7 +27138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -27171,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -27205,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -27239,7 +27240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -27273,7 +27274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -27307,7 +27308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -27341,7 +27342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -27375,7 +27376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -27409,7 +27410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -27443,7 +27444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -27477,7 +27478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -27511,7 +27512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -27547,7 +27548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -27583,7 +27584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -27619,7 +27620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -27655,7 +27656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -27691,7 +27692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -27727,7 +27728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -27763,7 +27764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -27799,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -27835,7 +27836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -27871,7 +27872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -27907,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -27943,7 +27944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -27979,7 +27980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -28015,7 +28016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -28051,7 +28052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -28087,7 +28088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -28123,7 +28124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -28159,7 +28160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -28195,7 +28196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -28231,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -28267,7 +28268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -28303,7 +28304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -28339,7 +28340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -28375,7 +28376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -28411,7 +28412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -28447,7 +28448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -28483,7 +28484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -28519,7 +28520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -28555,13 +28556,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-B-C.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-B-C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D618E4C8-462F-4986-9621-A1752ADB7957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4CA7F0-E700-4FE6-88C8-0ACF84E1981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="1" activeTab="3" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" firstSheet="2" activeTab="12" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="CHICHARO" sheetId="15" r:id="rId13"/>
     <sheet name="CHILE SECO" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -213,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -229,6 +234,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,14 +555,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -572,12 +578,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -595,7 +601,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -629,7 +635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -659,7 +665,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -691,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -755,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -851,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -957,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -991,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1241,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1563,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1743,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1923,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1993,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2281,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -2353,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2425,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2497,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2569,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -3073,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -3109,13 +3115,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -3135,12 +3141,12 @@
       <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3158,7 +3164,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3192,7 +3198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3222,7 +3228,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3244,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3332,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3398,7 +3404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3508,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3530,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -3618,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3706,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3728,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3772,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3794,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -3882,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -3926,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -3970,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -3992,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -4014,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4036,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4102,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4168,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4234,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4256,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4366,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4388,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -4410,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -4432,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -4454,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -4498,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -4520,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -4542,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -4610,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -4644,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -4712,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4746,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -4780,7 +4786,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>-1013</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -4848,16 +4854,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -4879,12 +4885,12 @@
       <selection pane="bottomLeft" activeCell="S72" sqref="S72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -4902,7 +4908,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4966,7 +4972,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -4988,7 +4994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5054,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5120,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5164,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5186,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5208,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -5230,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5252,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5274,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -5428,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -5450,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -5472,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -5494,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -5516,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -5560,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -5582,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -5604,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -5648,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -5692,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -5714,7 +5720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -5736,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -5780,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -5846,7 +5852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -5868,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -5912,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -5956,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -6022,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -6154,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -6176,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -6198,7 +6204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -6220,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -6242,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -6264,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -6286,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -6322,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -6358,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -6394,7 +6400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -6430,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -6466,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -6538,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -6610,13 +6616,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -6631,17 +6637,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEB07D1-B8F3-46C3-8412-78714663CD2D}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J64" sqref="J64:J72"/>
+      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -6659,7 +6665,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -6693,7 +6699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -6723,7 +6729,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -6755,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -6851,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -6883,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -6915,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -6949,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -6983,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -7017,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -7053,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -7089,7 +7095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -7125,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -7161,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -7197,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -7233,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -7269,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -7305,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -7341,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -7377,7 +7383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -7413,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -7449,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -7485,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -7521,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -7557,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -7591,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -7659,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -7693,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -7727,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -7761,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -7795,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -7897,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -7931,7 +7937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -7965,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -7999,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8033,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8069,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8103,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -8139,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -8175,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -8211,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -8247,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -8283,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -8319,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -8344,7 +8350,7 @@
         <v>11638</v>
       </c>
       <c r="J50" s="6">
-        <v>0.26200000000000001</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="M50" s="2">
         <f t="shared" si="0"/>
@@ -8355,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -8427,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -8463,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -8499,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -8535,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -8571,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -8607,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -8643,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -8679,7 +8685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -8715,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -8751,7 +8757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -8787,7 +8793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -8823,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -8859,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -8895,7 +8901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -8931,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -8965,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -8999,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -9035,7 +9041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -9069,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -9103,7 +9109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -9137,13 +9143,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -9163,12 +9169,12 @@
       <selection pane="bottomLeft" activeCell="U68" sqref="U68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9186,7 +9192,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -9220,7 +9226,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -9250,7 +9256,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -9282,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9314,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -9348,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -9382,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -9416,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -9450,7 +9456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -9486,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -9522,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -9558,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -9594,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -9628,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -9662,7 +9668,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -9696,7 +9702,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -9732,7 +9738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -9768,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -9804,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -9838,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -9874,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -9908,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -9942,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -10010,7 +10016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -10044,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -10078,7 +10084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -10112,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -10146,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -10180,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -10214,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10248,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -10282,7 +10288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10316,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10350,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10384,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10418,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10452,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -10486,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10520,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10554,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -10588,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -10619,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -10655,7 +10661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -10691,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -10727,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -10763,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -10799,7 +10805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -10835,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -10871,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -10907,7 +10913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -10943,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -10979,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -11051,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -11087,7 +11093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -11123,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -11159,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -11195,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11267,7 +11273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11303,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -11339,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11375,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11411,7 +11417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11447,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11483,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11519,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -11555,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11591,7 +11597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11627,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -11663,13 +11669,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -11689,12 +11695,12 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -11712,7 +11718,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11746,7 +11752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11776,7 +11782,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -11798,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -11820,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -11842,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -11864,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -11886,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -11908,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -11930,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -11952,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -11974,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -11996,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -12018,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -12040,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12062,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -12084,7 +12090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -12106,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -12128,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -12150,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -12172,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12194,7 +12200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12216,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12238,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12260,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12282,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -12304,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12326,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12348,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12370,7 +12376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -12392,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -12414,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -12436,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -12458,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -12480,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -12502,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -12524,7 +12530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -12546,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -12568,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -12590,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -12612,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -12634,7 +12640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -12656,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -12678,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -12700,7 +12706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -12722,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -12744,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -12766,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -12788,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -12810,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -12832,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -12854,7 +12860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -12876,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -12898,7 +12904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -12920,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -12942,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -12964,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -12986,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13008,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13030,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -13052,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -13074,7 +13080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -13096,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -13118,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -13140,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -13162,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -13184,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -13206,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -13228,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -13250,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -13272,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -13294,13 +13300,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -13319,12 +13325,12 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -13342,7 +13348,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13376,7 +13382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -13406,7 +13412,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -13428,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -13450,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -13472,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -13494,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -13516,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -13538,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -13560,7 +13566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -13582,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -13616,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -13650,7 +13656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -13684,7 +13690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -13718,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -13748,7 +13754,7 @@
         <v>6.0000000000002274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -13816,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -13884,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -13918,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -13952,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -13986,7 +13992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14020,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -14054,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -14084,7 +14090,7 @@
         <v>8.0000000000381988E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -14118,7 +14124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -14150,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -14182,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -14214,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -14246,7 +14252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14278,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -14310,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -14342,7 +14348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -14374,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -14406,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -14438,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -14470,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -14502,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -14536,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -14570,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -14600,7 +14606,7 @@
         <v>-7.9999999999813554E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -14630,7 +14636,7 @@
         <v>4.9999999999954525E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -14664,7 +14670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -14698,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -14732,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -14766,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -14800,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -14834,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -14868,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -14902,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -14936,7 +14942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -14970,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15004,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15038,7 +15044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15072,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -15106,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15140,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15174,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15208,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15242,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15276,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -15310,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15340,7 +15346,7 @@
         <v>-9.5999999999548891E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15370,7 +15376,7 @@
         <v>-0.34399999999914144</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15400,7 +15406,7 @@
         <v>-6.099999999969441E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15430,7 +15436,7 @@
         <v>-4.0000000000873115E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15460,7 +15466,7 @@
         <v>-24.205999999998312</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -15490,7 +15496,7 @@
         <v>0.24799999999959255</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -15520,7 +15526,7 @@
         <v>-5.6000000000494765E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -15550,7 +15556,7 @@
         <v>0.15099999999983993</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -15580,39 +15586,39 @@
         <v>0.81600000000071304</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>28</v>
       </c>
       <c r="J75" s="6"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>32</v>
       </c>
@@ -15629,16 +15635,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94774D4-03FA-49FD-8188-D0B81ECCECF4}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -15656,7 +15662,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -15690,7 +15696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -15720,7 +15726,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -15742,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -15760,11 +15766,11 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O58" si="1">D5-G5+F5-I5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O5:O68" si="1">D5-G5+F5-I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -15786,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -15808,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -15830,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -15852,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -15874,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -15896,7 +15902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -15918,7 +15924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -15940,7 +15946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -15962,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -15984,7 +15990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16006,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16028,7 +16034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16050,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16072,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16094,7 +16100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -16116,7 +16122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16138,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16160,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16182,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16204,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16226,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -16248,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16270,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16292,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16314,7 +16320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16336,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16358,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -16380,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16402,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16424,7 +16430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16446,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16468,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16485,12 +16491,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="3">
+        <f>D38-G38+F38-I38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -16512,7 +16518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -16534,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -16556,7 +16562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -16578,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -16600,7 +16606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -16622,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -16644,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -16666,7 +16672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -16688,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -16710,7 +16716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -16732,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -16754,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -16776,7 +16782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -16798,7 +16804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -16820,7 +16826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -16842,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -16864,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -16886,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -16908,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -16930,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -16948,11 +16954,9 @@
       <c r="G59" s="3">
         <v>44</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
         <v>5446</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0.104</v>
       </c>
       <c r="J59" s="6">
         <v>0.104</v>
@@ -16961,12 +16965,12 @@
         <f t="shared" si="0"/>
         <v>-5.4000000000087311E-2</v>
       </c>
-      <c r="O59" s="3">
-        <f>D59-G59+F59-H59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -16984,11 +16988,9 @@
       <c r="G60" s="3">
         <v>65</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3">
         <v>3592</v>
-      </c>
-      <c r="I60" s="3">
-        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J60" s="6">
         <v>6.6000000000000003E-2</v>
@@ -16997,12 +16999,12 @@
         <f t="shared" si="0"/>
         <v>3.0000000000200089E-2</v>
       </c>
-      <c r="O60" s="3">
-        <f t="shared" ref="O60:O72" si="2">D60-G60+F60-H60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -17020,11 +17022,9 @@
       <c r="G61" s="3">
         <v>61</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
         <v>2634</v>
-      </c>
-      <c r="I61" s="3">
-        <v>4.7E-2</v>
       </c>
       <c r="J61" s="6">
         <v>4.7E-2</v>
@@ -17033,12 +17033,12 @@
         <f t="shared" si="0"/>
         <v>-7.0000000000163709E-2</v>
       </c>
-      <c r="O61" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -17056,11 +17056,9 @@
       <c r="G62" s="3">
         <v>109</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3">
         <v>2367</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4.1000000000000002E-2</v>
       </c>
       <c r="J62" s="6">
         <v>4.1000000000000002E-2</v>
@@ -17069,12 +17067,12 @@
         <f t="shared" si="0"/>
         <v>4.500000000007276E-2</v>
       </c>
-      <c r="O62" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
@@ -17092,11 +17090,9 @@
       <c r="G63" s="3">
         <v>70</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3">
         <v>3510</v>
-      </c>
-      <c r="I63" s="3">
-        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J63" s="6">
         <v>6.5000000000000002E-2</v>
@@ -17105,12 +17101,12 @@
         <f t="shared" si="0"/>
         <v>5.9999999998581188E-3</v>
       </c>
-      <c r="O63" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -17128,11 +17124,9 @@
       <c r="G64" s="3">
         <v>93</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3">
         <v>245</v>
-      </c>
-      <c r="I64" s="3">
-        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J64" s="6">
         <v>4.0000000000000001E-3</v>
@@ -17141,12 +17135,12 @@
         <f t="shared" si="0"/>
         <v>-5.9999999999718057E-3</v>
       </c>
-      <c r="O64" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -17164,11 +17158,9 @@
       <c r="G65" s="3">
         <v>42</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="3"/>
+      <c r="I65" s="3">
         <v>1388</v>
-      </c>
-      <c r="I65" s="3">
-        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J65" s="6">
         <v>2.1999999999999999E-2</v>
@@ -17177,12 +17169,12 @@
         <f t="shared" si="0"/>
         <v>-3.1999999999925421E-2</v>
       </c>
-      <c r="O65" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -17200,11 +17192,9 @@
       <c r="G66" s="3">
         <v>37</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3">
         <v>1404</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2.1999999999999999E-2</v>
       </c>
       <c r="J66" s="6">
         <v>2.1999999999999999E-2</v>
@@ -17213,12 +17203,12 @@
         <f t="shared" si="0"/>
         <v>-5.7999999999992724E-2</v>
       </c>
-      <c r="O66" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -17236,11 +17226,9 @@
       <c r="G67" s="3">
         <v>96</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="3"/>
+      <c r="I67" s="3">
         <v>1259</v>
-      </c>
-      <c r="I67" s="3">
-        <v>1.9E-2</v>
       </c>
       <c r="J67" s="6">
         <v>1.9E-2</v>
@@ -17249,12 +17237,12 @@
         <f t="shared" si="0"/>
         <v>3.9999999999054126E-3</v>
       </c>
-      <c r="O67" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -17272,11 +17260,9 @@
       <c r="G68" s="3">
         <v>49</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3">
         <v>3254</v>
-      </c>
-      <c r="I68" s="3">
-        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J68" s="6">
         <v>4.8000000000000001E-2</v>
@@ -17285,12 +17271,12 @@
         <f t="shared" si="0"/>
         <v>-0.14399999999977808</v>
       </c>
-      <c r="O68" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -17308,25 +17294,23 @@
       <c r="G69" s="3">
         <v>63</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3">
         <v>1510</v>
-      </c>
-      <c r="I69" s="3">
-        <v>2.3E-2</v>
       </c>
       <c r="J69" s="6">
         <v>2.3E-2</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" ref="M69:M72" si="3">B69*C69/1000 -D69</f>
+        <f t="shared" ref="M69:M72" si="2">B69*C69/1000 -D69</f>
         <v>-5.999999999994543E-2</v>
       </c>
-      <c r="O69" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -17344,25 +17328,23 @@
       <c r="G70" s="3">
         <v>212</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="3"/>
+      <c r="I70" s="5">
         <v>1338</v>
-      </c>
-      <c r="I70" s="5">
-        <v>1.9E-2</v>
       </c>
       <c r="J70" s="6">
         <v>1.9E-2</v>
       </c>
       <c r="M70" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1999999999925421E-2</v>
+      </c>
+      <c r="O70">
         <f t="shared" si="3"/>
-        <v>3.1999999999925421E-2</v>
-      </c>
-      <c r="O70" s="3">
-        <f t="shared" si="2"/>
         <v>-474</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -17380,25 +17362,23 @@
       <c r="G71" s="3">
         <v>61</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3">
         <v>1285</v>
-      </c>
-      <c r="I71" s="3">
-        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J71" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="M71" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.0000000001091394E-3</v>
+      </c>
+      <c r="O71">
         <f t="shared" si="3"/>
-        <v>-5.0000000001091394E-3</v>
-      </c>
-      <c r="O71" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -17416,31 +17396,29 @@
       <c r="G72" s="3">
         <v>32</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3"/>
+      <c r="I72" s="3">
         <v>1289</v>
-      </c>
-      <c r="I72" s="3">
-        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J72" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="M72" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.1999999999925421E-2</v>
+      </c>
+      <c r="O72">
         <f t="shared" si="3"/>
-        <v>-3.1999999999925421E-2</v>
-      </c>
-      <c r="O72" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -17459,12 +17437,12 @@
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -17482,7 +17460,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -17516,7 +17494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -17546,7 +17524,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -17568,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -17590,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -17612,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -17634,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -17656,7 +17634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -17678,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -17700,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -17722,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -17744,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -17766,7 +17744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -17788,7 +17766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -17810,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -17832,7 +17810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -17854,7 +17832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -17876,7 +17854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -17898,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -17920,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -17942,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -17964,7 +17942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -17986,7 +17964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18008,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18030,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18052,7 +18030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -18074,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18096,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -18118,7 +18096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -18140,7 +18118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -18162,7 +18140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -18184,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -18206,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -18228,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -18250,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -18272,7 +18250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -18294,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -18316,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -18338,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -18360,7 +18338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -18382,7 +18360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -18404,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -18426,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -18448,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -18470,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -18492,7 +18470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -18514,7 +18492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -18536,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -18558,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -18580,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -18602,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -18624,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -18646,7 +18624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -18668,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -18690,7 +18668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -18712,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -18734,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -18756,7 +18734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -18778,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -18800,7 +18778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -18822,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -18856,7 +18834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>1975</v>
       </c>
@@ -18890,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1976</v>
       </c>
@@ -18924,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1977</v>
       </c>
@@ -18958,7 +18936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1978</v>
       </c>
@@ -18992,7 +18970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1979</v>
       </c>
@@ -19026,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>34</v>
       </c>
@@ -19060,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>1980</v>
       </c>
@@ -19094,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1981</v>
       </c>
@@ -19128,7 +19106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1982</v>
       </c>
@@ -19162,13 +19140,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
   </sheetData>
@@ -19187,12 +19165,12 @@
       <selection activeCell="F41" sqref="F41:F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -19210,7 +19188,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -19244,7 +19222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -19274,7 +19252,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -19306,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -19338,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -19374,7 +19352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -19408,7 +19386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -19442,7 +19420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -19478,7 +19456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -19514,7 +19492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -19548,7 +19526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -19582,7 +19560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -19618,7 +19596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -19652,7 +19630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -19688,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -19720,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -19754,7 +19732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -19788,7 +19766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -19820,7 +19798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -19852,7 +19830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -19888,7 +19866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -19922,7 +19900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -19956,7 +19934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -19992,7 +19970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -20026,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -20060,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -20096,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -20132,7 +20110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -20168,7 +20146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -20202,7 +20180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -20236,7 +20214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -20270,7 +20248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -20306,7 +20284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -20340,7 +20318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -20374,7 +20352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -20408,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -20442,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -20476,7 +20454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -20510,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -20544,7 +20522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -20580,7 +20558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -20616,7 +20594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -20652,7 +20630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -20688,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -20724,7 +20702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -20760,7 +20738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -20796,7 +20774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -20832,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -20868,7 +20846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -20904,7 +20882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -20940,7 +20918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -20976,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21012,7 +20990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21048,7 +21026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21084,7 +21062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21120,7 +21098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -21156,7 +21134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21192,7 +21170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21228,7 +21206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21264,7 +21242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21300,7 +21278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21336,7 +21314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -21372,7 +21350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -21408,7 +21386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -21444,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -21480,7 +21458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -21516,7 +21494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -21552,7 +21530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -21588,7 +21566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -21624,7 +21602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -21660,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -21696,13 +21674,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -21717,16 +21695,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B22330-F45C-4A0B-8045-5012B7F1297F}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -21744,7 +21723,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -21778,7 +21757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -21808,7 +21787,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -21840,7 +21819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -21872,7 +21851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -21904,7 +21883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -21936,7 +21915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -21968,7 +21947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -22000,7 +21979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -22020,8 +21999,8 @@
       <c r="I10" s="3">
         <v>32160</v>
       </c>
-      <c r="J10" s="6">
-        <v>1.3959999999999999</v>
+      <c r="J10" s="11">
+        <v>1.9390000000000001</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="0"/>
@@ -22032,7 +22011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -22064,7 +22043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -22096,7 +22075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -22128,7 +22107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -22160,7 +22139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -22192,7 +22171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -22224,7 +22203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -22256,7 +22235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -22288,7 +22267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -22320,7 +22299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -22352,7 +22331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -22384,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -22416,7 +22395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -22436,8 +22415,8 @@
       <c r="I23" s="3">
         <v>63412</v>
       </c>
-      <c r="J23" s="6">
-        <v>2.1379999999999999</v>
+      <c r="J23" s="11">
+        <v>3.1379999999999999</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="0"/>
@@ -22448,7 +22427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -22480,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -22512,7 +22491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -22544,7 +22523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -22576,7 +22555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -22608,7 +22587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -22640,7 +22619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -22672,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -22704,7 +22683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -22736,7 +22715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -22768,7 +22747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -22800,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -22832,7 +22811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -22864,7 +22843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -22896,7 +22875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -22928,7 +22907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -22960,7 +22939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -22992,7 +22971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -23024,7 +23003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -23058,7 +23037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -23092,7 +23071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -23126,7 +23105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -23160,7 +23139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -23196,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -23232,7 +23211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -23268,7 +23247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -23302,7 +23281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -23336,7 +23315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -23372,7 +23351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -23408,7 +23387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -23444,7 +23423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -23478,7 +23457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -23514,7 +23493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -23548,7 +23527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -23584,7 +23563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -23618,7 +23597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -23652,7 +23631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -23688,7 +23667,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -23724,7 +23703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -23758,7 +23737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -23794,7 +23773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -23828,7 +23807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -23862,7 +23841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -23894,7 +23873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -23926,7 +23905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -23958,7 +23937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -23992,7 +23971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -24024,7 +24003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -24056,7 +24035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -24088,13 +24067,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -24109,16 +24088,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6441F481-65DA-4206-9BCC-647BAF452F66}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -24136,7 +24115,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -24170,7 +24149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -24200,7 +24179,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -24222,7 +24201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -24244,7 +24223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -24266,7 +24245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -24288,7 +24267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -24310,7 +24289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -24332,7 +24311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -24354,7 +24333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -24376,7 +24355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -24398,7 +24377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -24420,7 +24399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -24442,7 +24421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -24464,7 +24443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -24486,7 +24465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -24508,7 +24487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -24530,7 +24509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -24552,7 +24531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -24574,7 +24553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -24596,7 +24575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -24618,7 +24597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -24640,7 +24619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -24662,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -24684,7 +24663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -24706,7 +24685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -24728,7 +24707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -24750,7 +24729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -24772,7 +24751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -24794,7 +24773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -24816,7 +24795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -24838,7 +24817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -24860,7 +24839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -24882,7 +24861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -24904,7 +24883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -24926,7 +24905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -24948,7 +24927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -24970,7 +24949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -24992,7 +24971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -25014,7 +24993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -25036,7 +25015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -25058,7 +25037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -25080,7 +25059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -25102,7 +25081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -25124,7 +25103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -25156,7 +25135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -25188,7 +25167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -25220,7 +25199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -25252,7 +25231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -25284,7 +25263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -25316,7 +25295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -25350,7 +25329,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -25384,7 +25363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -25418,7 +25397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -25452,7 +25431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -25484,7 +25463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -25518,7 +25497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -25538,8 +25517,8 @@
       <c r="I58" s="3">
         <v>288493</v>
       </c>
-      <c r="J58" s="6">
-        <v>5.2910000000000004</v>
+      <c r="J58" s="11">
+        <v>5.6909999999999998</v>
       </c>
       <c r="M58" s="2">
         <f t="shared" si="0"/>
@@ -25550,7 +25529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -25584,7 +25563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -25618,7 +25597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -25652,7 +25631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -25684,7 +25663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -25718,7 +25697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -25752,7 +25731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -25786,7 +25765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -25820,7 +25799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -25856,7 +25835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -25892,7 +25871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -25928,7 +25907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -25962,7 +25941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -25996,7 +25975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -26032,13 +26011,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -26053,16 +26032,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5EDE0E-20CE-458D-8D89-52FA2CEB960B}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -26080,7 +26059,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -26114,7 +26093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -26144,7 +26123,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -26178,7 +26157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -26212,7 +26191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -26246,7 +26225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -26280,7 +26259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -26314,7 +26293,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -26348,7 +26327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -26384,7 +26363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -26420,7 +26399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -26454,7 +26433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -26488,7 +26467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -26524,7 +26503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -26560,7 +26539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -26594,7 +26573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -26628,7 +26607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -26662,7 +26641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -26696,7 +26675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -26730,7 +26709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -26764,7 +26743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -26798,7 +26777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -26832,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -26866,7 +26845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -26900,7 +26879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -26934,7 +26913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -26968,7 +26947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -27002,7 +26981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -27036,7 +27015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -27070,7 +27049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -27104,7 +27083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -27138,7 +27117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -27172,7 +27151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -27206,7 +27185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -27240,7 +27219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -27274,7 +27253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -27308,7 +27287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -27342,7 +27321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -27376,7 +27355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -27410,7 +27389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -27444,7 +27423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -27478,7 +27457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -27500,8 +27479,8 @@
       <c r="I43" s="3">
         <v>212892</v>
       </c>
-      <c r="J43" s="6">
-        <v>6.9139999999999997</v>
+      <c r="J43" s="11">
+        <v>6.3140000000000001</v>
       </c>
       <c r="M43" s="2">
         <f t="shared" si="0"/>
@@ -27512,7 +27491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -27548,7 +27527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
@@ -27584,7 +27563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -27620,7 +27599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -27656,7 +27635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -27692,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -27728,7 +27707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -27764,7 +27743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -27800,7 +27779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -27836,7 +27815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -27872,7 +27851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -27908,7 +27887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -27944,7 +27923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -27980,7 +27959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -28016,7 +27995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -28052,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -28088,7 +28067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -28124,7 +28103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -28160,7 +28139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -28196,7 +28175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
@@ -28232,7 +28211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -28268,7 +28247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -28304,7 +28283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -28340,7 +28319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -28376,7 +28355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -28412,7 +28391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -28448,7 +28427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -28484,7 +28463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -28520,7 +28499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -28556,13 +28535,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-B-C.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-annual-crops-B-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4CA7F0-E700-4FE6-88C8-0ACF84E1981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAB9D85-1894-4FF7-BBEF-DCC9D3273CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77235" yWindow="990" windowWidth="31200" windowHeight="21360" firstSheet="2" activeTab="12" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" activeTab="10" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,10 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,2571 +574,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1B931C-902C-482C-99B6-2D7B09DD2EB4}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
-        <v>1925</v>
-      </c>
-      <c r="B4" s="3">
-        <v>4412</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3155</v>
-      </c>
-      <c r="D4" s="3">
-        <v>13918</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>13918</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="M4" s="2">
-        <f>B4*C4/1000 -D4</f>
-        <v>1.8600000000005821</v>
-      </c>
-      <c r="O4">
-        <f>D4-G4+F4-I4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
-        <v>1926</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4399</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3218</v>
-      </c>
-      <c r="D5" s="3">
-        <v>14155</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>14155</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" ref="M5:M68" si="0">B5*C5/1000 -D5</f>
-        <v>0.9819999999999709</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O68" si="1">D5-G5+F5-I5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
-        <v>1927</v>
-      </c>
-      <c r="B6" s="3">
-        <v>4526</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3551</v>
-      </c>
-      <c r="D6" s="3">
-        <v>16074</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>16074</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.1740000000008877</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
-        <v>1928</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4249</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3368</v>
-      </c>
-      <c r="D7" s="3">
-        <v>14311</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>14311</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.3680000000003929</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
-        <v>1929</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3379</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3225</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10897</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>10897</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2749999999996362</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4193</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3308</v>
-      </c>
-      <c r="D9" s="3">
-        <v>13871</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>13871</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.55600000000049477</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
-        <v>1930</v>
-      </c>
-      <c r="B10" s="3">
-        <v>3454</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3061</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10571</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
-        <v>1262</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>11828</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6939999999995052</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
-        <v>1931</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3384</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3245</v>
-      </c>
-      <c r="D11" s="3">
-        <v>10981</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>1160</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
-        <v>12141</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="0"/>
-        <v>7.999999999992724E-2</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>1932</v>
-      </c>
-      <c r="B12" s="3">
-        <v>3277</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3907</v>
-      </c>
-      <c r="D12" s="3">
-        <v>12803</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>518</v>
-      </c>
-      <c r="G12" s="3">
-        <v>41</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>13280</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.23899999999957799</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
-        <v>1933</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3144</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3939</v>
-      </c>
-      <c r="D13" s="3">
-        <v>12384</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3">
-        <v>353</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>12737</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.21600000000034925</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
-        <v>1934</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2866</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3251</v>
-      </c>
-      <c r="D14" s="3">
-        <v>9316</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3">
-        <v>301</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>9617</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.3659999999999854</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3225</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3476</v>
-      </c>
-      <c r="D15" s="3">
-        <v>11211</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>719</v>
-      </c>
-      <c r="G15" s="3">
-        <v>9</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>11921</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.8999999999996362</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
-        <v>1935</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3465</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3284</v>
-      </c>
-      <c r="D16" s="3">
-        <v>11379</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3">
-        <v>513</v>
-      </c>
-      <c r="G16" s="3">
-        <v>91</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
-        <v>11801</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="0"/>
-        <v>5.9999999999490683E-2</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
-        <v>1936</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3693</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3259</v>
-      </c>
-      <c r="D17" s="3">
-        <v>12034</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>501</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>12532</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="0"/>
-        <v>1.4869999999991705</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
-        <v>1937</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3696</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3156</v>
-      </c>
-      <c r="D18" s="3">
-        <v>11664</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>1011</v>
-      </c>
-      <c r="G18" s="3">
-        <v>14</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>12661</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0.67600000000000005</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57599999999911233</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
-        <v>1938</v>
-      </c>
-      <c r="B19" s="3">
-        <v>4045</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3430</v>
-      </c>
-      <c r="D19" s="3">
-        <v>13875</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <v>389</v>
-      </c>
-      <c r="G19" s="3">
-        <v>31</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
-        <v>14233</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.746</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.6499999999996362</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
-        <v>1939</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5015</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3151</v>
-      </c>
-      <c r="D20" s="3">
-        <v>15804</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
-        <v>564</v>
-      </c>
-      <c r="G20" s="3">
-        <v>39</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
-        <v>16329</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.7350000000005821</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3">
-        <v>3983</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3252</v>
-      </c>
-      <c r="D21" s="3">
-        <v>12951</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3">
-        <v>596</v>
-      </c>
-      <c r="G21" s="3">
-        <v>36</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
-        <v>13511</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7160000000003492</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1">
-        <v>1940</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5428</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2739</v>
-      </c>
-      <c r="D22" s="3">
-        <v>14865</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3">
-        <v>368</v>
-      </c>
-      <c r="G22" s="3">
-        <v>12</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
-        <v>15221</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0.77</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="0"/>
-        <v>2.2919999999994616</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1">
-        <v>1941</v>
-      </c>
-      <c r="B23" s="3">
-        <v>6660</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3181</v>
-      </c>
-      <c r="D23" s="3">
-        <v>21183</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
-        <v>386</v>
-      </c>
-      <c r="G23" s="3">
-        <v>493</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>21076</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="0"/>
-        <v>2.4599999999991269</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1">
-        <v>1942</v>
-      </c>
-      <c r="B24" s="3">
-        <v>6825</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3663</v>
-      </c>
-      <c r="D24" s="3">
-        <v>25000</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <v>1297</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1215</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>25082</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1.214</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.5000000001455192E-2</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1">
-        <v>1943</v>
-      </c>
-      <c r="B25" s="3">
-        <v>7691</v>
-      </c>
-      <c r="C25" s="3">
-        <v>3510</v>
-      </c>
-      <c r="D25" s="3">
-        <v>26992</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3">
-        <v>186</v>
-      </c>
-      <c r="G25" s="3">
-        <v>5492</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
-        <v>21686</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4099999999998545</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1">
-        <v>1944</v>
-      </c>
-      <c r="B26" s="3">
-        <v>7774</v>
-      </c>
-      <c r="C26" s="3">
-        <v>3620</v>
-      </c>
-      <c r="D26" s="3">
-        <v>28141</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3">
-        <v>456</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2760</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
-        <v>25837</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="0"/>
-        <v>0.88000000000101863</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>6876</v>
-      </c>
-      <c r="C27" s="3">
-        <v>3379</v>
-      </c>
-      <c r="D27" s="3">
-        <v>23236</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
-        <v>539</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1994</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
-        <v>21781</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.9959999999991851</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1">
-        <v>1945</v>
-      </c>
-      <c r="B28" s="3">
-        <v>7776</v>
-      </c>
-      <c r="C28" s="3">
-        <v>3650</v>
-      </c>
-      <c r="D28" s="3">
-        <v>28379</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3">
-        <v>958</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3">
-        <v>27421</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1.2330000000000001</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="0"/>
-        <v>3.4000000000014552</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1">
-        <v>1946</v>
-      </c>
-      <c r="B29" s="3">
-        <v>7819</v>
-      </c>
-      <c r="C29" s="3">
-        <v>3670</v>
-      </c>
-      <c r="D29" s="3">
-        <v>28692</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>4908</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3">
-        <v>24784</v>
-      </c>
-      <c r="J29" s="6">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="0"/>
-        <v>3.7299999999995634</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1">
-        <v>1947</v>
-      </c>
-      <c r="B30" s="3">
-        <v>7958</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3713</v>
-      </c>
-      <c r="D30" s="3">
-        <v>29549</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3">
-        <v>1387</v>
-      </c>
-      <c r="G30" s="3">
-        <v>2052</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>28884</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1.232</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.94599999999991269</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1">
-        <v>1948</v>
-      </c>
-      <c r="B31" s="3">
-        <v>9569</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4063</v>
-      </c>
-      <c r="D31" s="3">
-        <v>38881</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3">
-        <v>1143</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2634</v>
-      </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>37390</v>
-      </c>
-      <c r="J31" s="6">
-        <v>1.55</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.1529999999984284</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1">
-        <v>1949</v>
-      </c>
-      <c r="B32" s="3">
-        <v>9606</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4066</v>
-      </c>
-      <c r="D32" s="3">
-        <v>39060</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
-        <v>255</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3358</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>35957</v>
-      </c>
-      <c r="J32" s="6">
-        <v>1.448</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.0040000000008149</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="3">
-        <v>8546</v>
-      </c>
-      <c r="C33" s="3">
-        <v>3851</v>
-      </c>
-      <c r="D33" s="3">
-        <v>32912</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3">
-        <v>757</v>
-      </c>
-      <c r="G33" s="3">
-        <v>2782</v>
-      </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3">
-        <v>30887</v>
-      </c>
-      <c r="J33" s="6">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.3539999999993597</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1">
-        <v>1950</v>
-      </c>
-      <c r="B34" s="3">
-        <v>9700</v>
-      </c>
-      <c r="C34" s="3">
-        <v>4124</v>
-      </c>
-      <c r="D34" s="3">
-        <v>40000</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3">
-        <v>305</v>
-      </c>
-      <c r="G34" s="3">
-        <v>3801</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3">
-        <v>36503</v>
-      </c>
-      <c r="J34" s="6">
-        <v>1.413</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8000000000029104</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1">
-        <v>1951</v>
-      </c>
-      <c r="B35" s="3">
-        <v>9991</v>
-      </c>
-      <c r="C35" s="3">
-        <v>4158</v>
-      </c>
-      <c r="D35" s="3">
-        <v>41538</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3">
-        <v>2653</v>
-      </c>
-      <c r="G35" s="3">
-        <v>4034</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3">
-        <v>40157</v>
-      </c>
-      <c r="J35" s="6">
-        <v>1.504</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5780000000013388</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1">
-        <v>1952</v>
-      </c>
-      <c r="B36" s="3">
-        <v>10120</v>
-      </c>
-      <c r="C36" s="3">
-        <v>4353</v>
-      </c>
-      <c r="D36" s="3">
-        <v>44053</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3">
-        <v>457</v>
-      </c>
-      <c r="G36" s="3">
-        <v>5352</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3">
-        <v>39158</v>
-      </c>
-      <c r="J36" s="6">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.63999999999941792</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1">
-        <v>1953</v>
-      </c>
-      <c r="B37" s="3">
-        <v>11186</v>
-      </c>
-      <c r="C37" s="3">
-        <v>4324</v>
-      </c>
-      <c r="D37" s="3">
-        <v>48364</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3">
-        <v>4442</v>
-      </c>
-      <c r="G37" s="3">
-        <v>8204</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3">
-        <v>44602</v>
-      </c>
-      <c r="J37" s="6">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="0"/>
-        <v>4.2640000000028522</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="1">
-        <v>1954</v>
-      </c>
-      <c r="B38" s="3">
-        <v>12905</v>
-      </c>
-      <c r="C38" s="3">
-        <v>4246</v>
-      </c>
-      <c r="D38" s="3">
-        <v>54795</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <v>1260</v>
-      </c>
-      <c r="G38" s="3">
-        <v>6481</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3">
-        <v>49574</v>
-      </c>
-      <c r="J38" s="6">
-        <v>1.68</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="0"/>
-        <v>-0.37000000000261934</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="3">
-        <v>10780</v>
-      </c>
-      <c r="C39" s="3">
-        <v>4244</v>
-      </c>
-      <c r="D39" s="3">
-        <v>45750</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3">
-        <v>1823</v>
-      </c>
-      <c r="G39" s="3">
-        <v>5575</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3">
-        <v>41998</v>
-      </c>
-      <c r="J39" s="6">
-        <v>1.52</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="0"/>
-        <v>0.31999999999970896</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="1">
-        <v>1955</v>
-      </c>
-      <c r="B40" s="3">
-        <v>13784</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4088</v>
-      </c>
-      <c r="D40" s="3">
-        <v>56345</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3">
-        <v>3077</v>
-      </c>
-      <c r="G40" s="3">
-        <v>4877</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3">
-        <v>54545</v>
-      </c>
-      <c r="J40" s="6">
-        <v>1.788</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9919999999983702</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1">
-        <v>1956</v>
-      </c>
-      <c r="B41" s="3">
-        <v>15583</v>
-      </c>
-      <c r="C41" s="3">
-        <v>3999</v>
-      </c>
-      <c r="D41" s="3">
-        <v>62318</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3">
-        <v>6084</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3">
-        <v>56234</v>
-      </c>
-      <c r="J41" s="6">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.5829999999987194</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1">
-        <v>1957</v>
-      </c>
-      <c r="B42" s="3">
-        <v>15634</v>
-      </c>
-      <c r="C42" s="3">
-        <v>3975</v>
-      </c>
-      <c r="D42" s="3">
-        <v>62144</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3">
-        <v>3232</v>
-      </c>
-      <c r="G42" s="3">
-        <v>7388</v>
-      </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3">
-        <v>57988</v>
-      </c>
-      <c r="J42" s="6">
-        <v>1.778</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" si="0"/>
-        <v>1.1500000000014552</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="1">
-        <v>1958</v>
-      </c>
-      <c r="B43" s="3">
-        <v>16227</v>
-      </c>
-      <c r="C43" s="3">
-        <v>3955</v>
-      </c>
-      <c r="D43" s="3">
-        <v>64184</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3">
-        <v>3053</v>
-      </c>
-      <c r="G43" s="3">
-        <v>12837</v>
-      </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3">
-        <v>54400</v>
-      </c>
-      <c r="J43" s="6">
-        <v>1.613</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.2149999999965075</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="1">
-        <v>1959</v>
-      </c>
-      <c r="B44" s="3">
-        <v>16095</v>
-      </c>
-      <c r="C44" s="3">
-        <v>4036</v>
-      </c>
-      <c r="D44" s="3">
-        <v>64952</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3">
-        <v>7129</v>
-      </c>
-      <c r="G44" s="3">
-        <v>5861</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3">
-        <v>66220</v>
-      </c>
-      <c r="J44" s="6">
-        <v>1.899</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" si="0"/>
-        <v>7.4199999999982538</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="3">
-        <v>15465</v>
-      </c>
-      <c r="C45" s="3">
-        <v>4008</v>
-      </c>
-      <c r="D45" s="3">
-        <v>61989</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3">
-        <v>3298</v>
-      </c>
-      <c r="G45" s="3">
-        <v>7409</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3">
-        <v>57878</v>
-      </c>
-      <c r="J45" s="6">
-        <v>1.7729999999999999</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.2799999999988358</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="1">
-        <v>1960</v>
-      </c>
-      <c r="B46" s="3">
-        <v>14764</v>
-      </c>
-      <c r="C46" s="3">
-        <v>4122</v>
-      </c>
-      <c r="D46" s="3">
-        <v>60859</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3">
-        <v>3313</v>
-      </c>
-      <c r="G46" s="3">
-        <v>7656</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3">
-        <v>56516</v>
-      </c>
-      <c r="J46" s="6">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.7920000000012806</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="1">
-        <v>1961</v>
-      </c>
-      <c r="B47" s="3">
-        <v>15303</v>
-      </c>
-      <c r="C47" s="3">
-        <v>4178</v>
-      </c>
-      <c r="D47" s="3">
-        <v>63952</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3">
-        <v>33</v>
-      </c>
-      <c r="G47" s="3">
-        <v>12962</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3">
-        <v>51023</v>
-      </c>
-      <c r="J47" s="6">
-        <v>1.369</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" si="0"/>
-        <v>-16.065999999998894</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="1">
-        <v>1962</v>
-      </c>
-      <c r="B48" s="3">
-        <v>15468</v>
-      </c>
-      <c r="C48" s="3">
-        <v>5415</v>
-      </c>
-      <c r="D48" s="3">
-        <v>83761</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3">
-        <v>80</v>
-      </c>
-      <c r="G48" s="3">
-        <v>19995</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3">
-        <v>63846</v>
-      </c>
-      <c r="J48" s="6">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.7799999999988358</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1">
-        <v>1963</v>
-      </c>
-      <c r="B49" s="3">
-        <v>15678</v>
-      </c>
-      <c r="C49" s="3">
-        <v>6125</v>
-      </c>
-      <c r="D49" s="3">
-        <v>96030</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3">
-        <v>12</v>
-      </c>
-      <c r="G49" s="3">
-        <v>17347</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3">
-        <v>78695</v>
-      </c>
-      <c r="J49" s="6">
-        <v>1.974</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.25</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1">
-        <v>1964</v>
-      </c>
-      <c r="B50" s="3">
-        <v>16130</v>
-      </c>
-      <c r="C50" s="3">
-        <v>6293</v>
-      </c>
-      <c r="D50" s="3">
-        <v>101501</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3">
-        <v>27</v>
-      </c>
-      <c r="G50" s="3">
-        <v>13958</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3">
-        <v>87570</v>
-      </c>
-      <c r="J50" s="6">
-        <v>2.2040000000000002</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0899999999965075</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="3">
-        <v>15470</v>
-      </c>
-      <c r="C51" s="3">
-        <v>5250</v>
-      </c>
-      <c r="D51" s="3">
-        <v>81221</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3">
-        <v>693</v>
-      </c>
-      <c r="G51" s="3">
-        <v>14384</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3">
-        <v>67530</v>
-      </c>
-      <c r="J51" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="M51" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.5</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1">
-        <v>1965</v>
-      </c>
-      <c r="B52" s="3">
-        <v>16312</v>
-      </c>
-      <c r="C52" s="3">
-        <v>6299</v>
-      </c>
-      <c r="D52" s="3">
-        <v>102754</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3">
-        <v>723</v>
-      </c>
-      <c r="G52" s="3">
-        <v>16358</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3">
-        <v>87119</v>
-      </c>
-      <c r="J52" s="6">
-        <v>2.0409999999999999</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.7119999999995343</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1">
-        <v>1966</v>
-      </c>
-      <c r="B53" s="3">
-        <v>17006</v>
-      </c>
-      <c r="C53" s="3">
-        <v>6348</v>
-      </c>
-      <c r="D53" s="3">
-        <v>107952</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3">
-        <v>35</v>
-      </c>
-      <c r="G53" s="3">
-        <v>16912</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3">
-        <v>91075</v>
-      </c>
-      <c r="J53" s="6">
-        <v>2.0630000000000002</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="0"/>
-        <v>2.088000000003376</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1">
-        <v>1967</v>
-      </c>
-      <c r="B54" s="3">
-        <v>16202</v>
-      </c>
-      <c r="C54" s="3">
-        <v>9906</v>
-      </c>
-      <c r="D54" s="3">
-        <v>160504</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3">
-        <v>590</v>
-      </c>
-      <c r="G54" s="3">
-        <v>10710</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3">
-        <v>150384</v>
-      </c>
-      <c r="J54" s="6">
-        <v>3.2930000000000001</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.9880000000121072</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1">
-        <v>1968</v>
-      </c>
-      <c r="B55" s="3">
-        <v>17483</v>
-      </c>
-      <c r="C55" s="3">
-        <v>9757</v>
-      </c>
-      <c r="D55" s="3">
-        <v>170590</v>
-      </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3">
-        <v>569</v>
-      </c>
-      <c r="G55" s="3">
-        <v>11046</v>
-      </c>
-      <c r="H55" s="3"/>
-      <c r="I55" s="7">
-        <v>160113</v>
-      </c>
-      <c r="J55" s="6">
-        <v>3.1549999999999998</v>
-      </c>
-      <c r="M55" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.3690000000060536</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="1">
-        <v>1969</v>
-      </c>
-      <c r="B56" s="3">
-        <v>15499</v>
-      </c>
-      <c r="C56" s="3">
-        <v>8718</v>
-      </c>
-      <c r="D56" s="3">
-        <v>135127</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3">
-        <v>340</v>
-      </c>
-      <c r="G56" s="3">
-        <v>14550</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3">
-        <v>120917</v>
-      </c>
-      <c r="J56" s="6">
-        <v>2.4710000000000001</v>
-      </c>
-      <c r="M56" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.7179999999934807</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="3">
-        <v>16500</v>
-      </c>
-      <c r="C57" s="3">
-        <v>8205</v>
-      </c>
-      <c r="D57" s="3">
-        <v>135385</v>
-      </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3">
-        <v>451</v>
-      </c>
-      <c r="G57" s="3">
-        <v>16115</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3">
-        <v>119719</v>
-      </c>
-      <c r="J57" s="6">
-        <v>2.617</v>
-      </c>
-      <c r="M57" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="1">
-        <v>1970</v>
-      </c>
-      <c r="B58" s="3">
-        <v>16737</v>
-      </c>
-      <c r="C58" s="3">
-        <v>8284</v>
-      </c>
-      <c r="D58" s="3">
-        <v>138651</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3">
-        <v>729</v>
-      </c>
-      <c r="G58" s="3">
-        <v>23620</v>
-      </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3">
-        <v>115760</v>
-      </c>
-      <c r="J58" s="6">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="M58" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.6920000000100117</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="1">
-        <v>1971</v>
-      </c>
-      <c r="B59" s="3">
-        <v>21529</v>
-      </c>
-      <c r="C59" s="3">
-        <v>10522</v>
-      </c>
-      <c r="D59" s="3">
-        <v>226536</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3">
-        <v>3373</v>
-      </c>
-      <c r="G59" s="3">
-        <v>17509</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3">
-        <v>212401</v>
-      </c>
-      <c r="J59" s="6">
-        <v>4.0469999999999997</v>
-      </c>
-      <c r="M59" s="2">
-        <f t="shared" si="0"/>
-        <v>-7.8619999999937136</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="1">
-        <v>1972</v>
-      </c>
-      <c r="B60" s="3">
-        <v>24621</v>
-      </c>
-      <c r="C60" s="3">
-        <v>10827</v>
-      </c>
-      <c r="D60" s="3">
-        <v>266573</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3">
-        <v>3513</v>
-      </c>
-      <c r="G60" s="3">
-        <v>25383</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3">
-        <v>244703</v>
-      </c>
-      <c r="J60" s="6">
-        <v>4.5060000000000002</v>
-      </c>
-      <c r="M60" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.4330000000190921</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="1">
-        <v>1973</v>
-      </c>
-      <c r="B61" s="3">
-        <v>25994</v>
-      </c>
-      <c r="C61" s="3">
-        <v>13138</v>
-      </c>
-      <c r="D61" s="3">
-        <v>341497</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3">
-        <v>562</v>
-      </c>
-      <c r="G61" s="3">
-        <v>46715</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3">
-        <v>295344</v>
-      </c>
-      <c r="J61" s="6">
-        <v>5.2590000000000003</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" si="0"/>
-        <v>12.172000000020489</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="1">
-        <v>1974</v>
-      </c>
-      <c r="B62" s="3">
-        <v>25476</v>
-      </c>
-      <c r="C62" s="3">
-        <v>13192</v>
-      </c>
-      <c r="D62" s="3">
-        <v>336090</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3">
-        <v>140</v>
-      </c>
-      <c r="G62" s="3">
-        <v>45538</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3">
-        <v>290692</v>
-      </c>
-      <c r="J62" s="6">
-        <v>5.01</v>
-      </c>
-      <c r="M62" s="2">
-        <f t="shared" si="0"/>
-        <v>-10.608000000007451</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="3">
-        <v>22871</v>
-      </c>
-      <c r="C63" s="3">
-        <v>11450</v>
-      </c>
-      <c r="D63" s="3">
-        <v>261869</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3">
-        <v>1663</v>
-      </c>
-      <c r="G63" s="3">
-        <v>31753</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3">
-        <v>231779</v>
-      </c>
-      <c r="J63" s="6">
-        <v>4.266</v>
-      </c>
-      <c r="M63" s="2">
-        <f t="shared" si="0"/>
-        <v>3.9500000000116415</v>
-      </c>
-      <c r="O63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="1">
-        <v>1975</v>
-      </c>
-      <c r="B64" s="3">
-        <v>20006</v>
-      </c>
-      <c r="C64" s="3">
-        <v>12150</v>
-      </c>
-      <c r="D64" s="3">
-        <v>243076</v>
-      </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3">
-        <v>317</v>
-      </c>
-      <c r="G64" s="3">
-        <v>35248</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3">
-        <v>208145</v>
-      </c>
-      <c r="J64" s="6">
-        <v>3.4740000000000002</v>
-      </c>
-      <c r="M64" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.1000000000058208</v>
-      </c>
-      <c r="O64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="1">
-        <v>1976</v>
-      </c>
-      <c r="B65" s="3">
-        <v>20700</v>
-      </c>
-      <c r="C65" s="3">
-        <v>13984</v>
-      </c>
-      <c r="D65" s="3">
-        <v>289460</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3">
-        <v>474</v>
-      </c>
-      <c r="G65" s="3">
-        <v>33038</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3">
-        <v>256896</v>
-      </c>
-      <c r="J65" s="6">
-        <v>4.157</v>
-      </c>
-      <c r="M65" s="2">
-        <f t="shared" si="0"/>
-        <v>8.7999999999883585</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="1">
-        <v>1977</v>
-      </c>
-      <c r="B66" s="3">
-        <v>21027</v>
-      </c>
-      <c r="C66" s="3">
-        <v>14996</v>
-      </c>
-      <c r="D66" s="3">
-        <v>315335</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3">
-        <v>672</v>
-      </c>
-      <c r="G66" s="3">
-        <v>37365</v>
-      </c>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3">
-        <v>278642</v>
-      </c>
-      <c r="J66" s="6">
-        <v>4.3739999999999997</v>
-      </c>
-      <c r="M66" s="2">
-        <f t="shared" si="0"/>
-        <v>-14.108000000007451</v>
-      </c>
-      <c r="O66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="1">
-        <v>1978</v>
-      </c>
-      <c r="B67" s="3">
-        <v>24002</v>
-      </c>
-      <c r="C67" s="3">
-        <v>14750</v>
-      </c>
-      <c r="D67" s="3">
-        <v>354021</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3">
-        <v>834</v>
-      </c>
-      <c r="G67" s="3">
-        <v>47831</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3">
-        <v>307024</v>
-      </c>
-      <c r="J67" s="6">
-        <v>4.68</v>
-      </c>
-      <c r="M67" s="2">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="1">
-        <v>1979</v>
-      </c>
-      <c r="B68" s="3">
-        <v>26670</v>
-      </c>
-      <c r="C68" s="3">
-        <v>14448</v>
-      </c>
-      <c r="D68" s="3">
-        <v>385317</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3">
-        <v>1543</v>
-      </c>
-      <c r="G68" s="3">
-        <v>58469</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3">
-        <v>328391</v>
-      </c>
-      <c r="J68" s="6">
-        <v>4.8659999999999997</v>
-      </c>
-      <c r="M68" s="2">
-        <f t="shared" si="0"/>
-        <v>11.159999999974389</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="3">
-        <v>22481</v>
-      </c>
-      <c r="C69" s="3">
-        <v>14120</v>
-      </c>
-      <c r="D69" s="3">
-        <v>317442</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3">
-        <v>768</v>
-      </c>
-      <c r="G69" s="3">
-        <v>42390</v>
-      </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3">
-        <v>275820</v>
-      </c>
-      <c r="J69" s="6">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="M69" s="2">
-        <f t="shared" ref="M69:M72" si="2">B69*C69/1000 -D69</f>
-        <v>-10.28000000002794</v>
-      </c>
-      <c r="O69">
-        <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="1">
-        <v>1980</v>
-      </c>
-      <c r="B70" s="3">
-        <v>25563</v>
-      </c>
-      <c r="C70" s="3">
-        <v>14793</v>
-      </c>
-      <c r="D70" s="3">
-        <v>378165</v>
-      </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3">
-        <v>9385</v>
-      </c>
-      <c r="G70" s="3">
-        <v>58265</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="5">
-        <v>329285</v>
-      </c>
-      <c r="J70" s="6">
-        <v>4.7480000000000002</v>
-      </c>
-      <c r="M70" s="2">
-        <f t="shared" si="2"/>
-        <v>-11.541000000026543</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="1">
-        <v>1981</v>
-      </c>
-      <c r="B71" s="3">
-        <v>22155</v>
-      </c>
-      <c r="C71" s="3">
-        <v>14861</v>
-      </c>
-      <c r="D71" s="3">
-        <v>329255</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3">
-        <v>1861</v>
-      </c>
-      <c r="G71" s="3">
-        <v>51175</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3">
-        <v>279941</v>
-      </c>
-      <c r="J71" s="6">
-        <v>3.931</v>
-      </c>
-      <c r="M71" s="2">
-        <f t="shared" si="2"/>
-        <v>-9.5449999999837019</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="1">
-        <v>1982</v>
-      </c>
-      <c r="B72" s="3">
-        <v>24795</v>
-      </c>
-      <c r="C72" s="3">
-        <v>17154</v>
-      </c>
-      <c r="D72" s="3">
-        <v>425342</v>
-      </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3">
-        <v>959</v>
-      </c>
-      <c r="G72" s="3">
-        <v>63471</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3">
-        <v>362830</v>
-      </c>
-      <c r="J72" s="6">
-        <v>4.9610000000000003</v>
-      </c>
-      <c r="M72" s="2">
-        <f t="shared" si="2"/>
-        <v>-8.5700000000069849</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="J75" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFB0B7A-B39C-49F9-A352-0ECF94065A73}">
-  <dimension ref="A1:O76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L82" sqref="L82"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3154,10 +593,2597 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4412</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3155</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13918</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>13918</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="M4" s="2">
+        <f>B4*C4/1000 -D4</f>
+        <v>1.8600000000005821</v>
+      </c>
+      <c r="O4">
+        <f>D4-G4+F4-I4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>1926</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4399</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3218</v>
+      </c>
+      <c r="D5" s="3">
+        <v>14155</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>14155</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M68" si="0">B5*C5/1000 -D5</f>
+        <v>0.9819999999999709</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O68" si="1">D5-G5+F5-I5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>1927</v>
+      </c>
+      <c r="B6" s="3">
+        <v>4526</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3551</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16074</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>16074</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.1740000000008877</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>1928</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4249</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3368</v>
+      </c>
+      <c r="D7" s="3">
+        <v>14311</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>14311</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.3680000000003929</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>1929</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3379</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3225</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10897</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>10897</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.2749999999996362</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4193</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3308</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13871</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>13871</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.55600000000049477</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>1930</v>
+      </c>
+      <c r="B10" s="3">
+        <v>3454</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3061</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10571</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>1262</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>11828</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6939999999995052</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>1931</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3384</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3245</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10981</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>1160</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
+        <v>12141</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="0"/>
+        <v>7.999999999992724E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>1932</v>
+      </c>
+      <c r="B12" s="3">
+        <v>3277</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3907</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12803</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>518</v>
+      </c>
+      <c r="G12" s="3">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>13280</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23899999999957799</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3144</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3939</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12384</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>353</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>12737</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21600000000034925</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1">
+        <v>1934</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2866</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3251</v>
+      </c>
+      <c r="D14" s="3">
+        <v>9316</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>301</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>9617</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3659999999999854</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3225</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3476</v>
+      </c>
+      <c r="D15" s="3">
+        <v>11211</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>719</v>
+      </c>
+      <c r="G15" s="3">
+        <v>9</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>11921</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.8999999999996362</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1">
+        <v>1935</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3465</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3284</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11379</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>513</v>
+      </c>
+      <c r="G16" s="3">
+        <v>91</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>11801</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9999999999490683E-2</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <v>1936</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3693</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3259</v>
+      </c>
+      <c r="D17" s="3">
+        <v>12034</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>501</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>12532</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4869999999991705</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1">
+        <v>1937</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3696</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3156</v>
+      </c>
+      <c r="D18" s="3">
+        <v>11664</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>1011</v>
+      </c>
+      <c r="G18" s="3">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>12661</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.57599999999911233</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1">
+        <v>1938</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4045</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3430</v>
+      </c>
+      <c r="D19" s="3">
+        <v>13875</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>389</v>
+      </c>
+      <c r="G19" s="3">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>14233</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.746</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.6499999999996362</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1">
+        <v>1939</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5015</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3151</v>
+      </c>
+      <c r="D20" s="3">
+        <v>15804</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>564</v>
+      </c>
+      <c r="G20" s="3">
+        <v>39</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>16329</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.7350000000005821</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3983</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3252</v>
+      </c>
+      <c r="D21" s="3">
+        <v>12951</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>596</v>
+      </c>
+      <c r="G21" s="3">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>13511</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7160000000003492</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1">
+        <v>1940</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5428</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2739</v>
+      </c>
+      <c r="D22" s="3">
+        <v>14865</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <v>368</v>
+      </c>
+      <c r="G22" s="3">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>15221</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2919999999994616</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1">
+        <v>1941</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6660</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3181</v>
+      </c>
+      <c r="D23" s="3">
+        <v>21183</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>386</v>
+      </c>
+      <c r="G23" s="3">
+        <v>493</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>21076</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4599999999991269</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1">
+        <v>1942</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6825</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3663</v>
+      </c>
+      <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>1297</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1215</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>25082</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.214</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.5000000001455192E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1">
+        <v>1943</v>
+      </c>
+      <c r="B25" s="3">
+        <v>7691</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3510</v>
+      </c>
+      <c r="D25" s="3">
+        <v>26992</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>186</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5492</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>21686</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4099999999998545</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1">
+        <v>1944</v>
+      </c>
+      <c r="B26" s="3">
+        <v>7774</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3620</v>
+      </c>
+      <c r="D26" s="3">
+        <v>28141</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>456</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2760</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>25837</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.88000000000101863</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6876</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3379</v>
+      </c>
+      <c r="D27" s="3">
+        <v>23236</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>539</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1994</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>21781</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.9959999999991851</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1">
+        <v>1945</v>
+      </c>
+      <c r="B28" s="3">
+        <v>7776</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3650</v>
+      </c>
+      <c r="D28" s="3">
+        <v>28379</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
+        <v>958</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>27421</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4000000000014552</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7819</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3670</v>
+      </c>
+      <c r="D29" s="3">
+        <v>28692</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4908</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>24784</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7299999999995634</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1">
+        <v>1947</v>
+      </c>
+      <c r="B30" s="3">
+        <v>7958</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3713</v>
+      </c>
+      <c r="D30" s="3">
+        <v>29549</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>1387</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2052</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>28884</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1.232</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.94599999999991269</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1">
+        <v>1948</v>
+      </c>
+      <c r="B31" s="3">
+        <v>9569</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4063</v>
+      </c>
+      <c r="D31" s="3">
+        <v>38881</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>1143</v>
+      </c>
+      <c r="G31" s="3">
+        <v>2634</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>37390</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.1529999999984284</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1">
+        <v>1949</v>
+      </c>
+      <c r="B32" s="3">
+        <v>9606</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4066</v>
+      </c>
+      <c r="D32" s="3">
+        <v>39060</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <v>255</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3358</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>35957</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1.448</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.0040000000008149</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="3">
+        <v>8546</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3851</v>
+      </c>
+      <c r="D33" s="3">
+        <v>32912</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
+        <v>757</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2782</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <v>30887</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.3539999999993597</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B34" s="3">
+        <v>9700</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4124</v>
+      </c>
+      <c r="D34" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <v>305</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3801</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>36503</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1.413</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8000000000029104</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1">
+        <v>1951</v>
+      </c>
+      <c r="B35" s="3">
+        <v>9991</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4158</v>
+      </c>
+      <c r="D35" s="3">
+        <v>41538</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>2653</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4034</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>40157</v>
+      </c>
+      <c r="J35" s="6">
+        <v>1.504</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5780000000013388</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
+        <v>1952</v>
+      </c>
+      <c r="B36" s="3">
+        <v>10120</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4353</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44053</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <v>457</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5352</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
+        <v>39158</v>
+      </c>
+      <c r="J36" s="6">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.63999999999941792</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1">
+        <v>1953</v>
+      </c>
+      <c r="B37" s="3">
+        <v>11186</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4324</v>
+      </c>
+      <c r="D37" s="3">
+        <v>48364</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <v>4442</v>
+      </c>
+      <c r="G37" s="3">
+        <v>8204</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>44602</v>
+      </c>
+      <c r="J37" s="6">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2640000000028522</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
+        <v>1954</v>
+      </c>
+      <c r="B38" s="3">
+        <v>12905</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4246</v>
+      </c>
+      <c r="D38" s="3">
+        <v>54795</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>1260</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6481</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3">
+        <v>49574</v>
+      </c>
+      <c r="J38" s="6">
+        <v>1.68</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="0"/>
+        <v>-0.37000000000261934</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3">
+        <v>10780</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4244</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45750</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <v>1823</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5575</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3">
+        <v>41998</v>
+      </c>
+      <c r="J39" s="6">
+        <v>1.52</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="0"/>
+        <v>0.31999999999970896</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
+        <v>1955</v>
+      </c>
+      <c r="B40" s="3">
+        <v>13784</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4088</v>
+      </c>
+      <c r="D40" s="3">
+        <v>56345</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>3077</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4877</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>54545</v>
+      </c>
+      <c r="J40" s="6">
+        <v>1.788</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9919999999983702</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1">
+        <v>1956</v>
+      </c>
+      <c r="B41" s="3">
+        <v>15583</v>
+      </c>
+      <c r="C41" s="3">
+        <v>3999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>62318</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
+        <v>6084</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3">
+        <v>56234</v>
+      </c>
+      <c r="J41" s="6">
+        <v>1.7829999999999999</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.5829999999987194</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1">
+        <v>1957</v>
+      </c>
+      <c r="B42" s="3">
+        <v>15634</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3975</v>
+      </c>
+      <c r="D42" s="3">
+        <v>62144</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <v>3232</v>
+      </c>
+      <c r="G42" s="3">
+        <v>7388</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3">
+        <v>57988</v>
+      </c>
+      <c r="J42" s="6">
+        <v>1.778</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1500000000014552</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1">
+        <v>1958</v>
+      </c>
+      <c r="B43" s="3">
+        <v>16227</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3955</v>
+      </c>
+      <c r="D43" s="3">
+        <v>64184</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
+        <v>3053</v>
+      </c>
+      <c r="G43" s="3">
+        <v>12837</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3">
+        <v>54400</v>
+      </c>
+      <c r="J43" s="6">
+        <v>1.613</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.2149999999965075</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B44" s="3">
+        <v>16095</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4036</v>
+      </c>
+      <c r="D44" s="3">
+        <v>64952</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <v>7129</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5861</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3">
+        <v>66220</v>
+      </c>
+      <c r="J44" s="6">
+        <v>1.899</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="0"/>
+        <v>7.4199999999982538</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="3">
+        <v>15465</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4008</v>
+      </c>
+      <c r="D45" s="3">
+        <v>61989</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3">
+        <v>3298</v>
+      </c>
+      <c r="G45" s="3">
+        <v>7409</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
+        <v>57878</v>
+      </c>
+      <c r="J45" s="6">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="0"/>
+        <v>-5.2799999999988358</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1">
+        <v>1960</v>
+      </c>
+      <c r="B46" s="3">
+        <v>14764</v>
+      </c>
+      <c r="C46" s="3">
+        <v>4122</v>
+      </c>
+      <c r="D46" s="3">
+        <v>60859</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3">
+        <v>3313</v>
+      </c>
+      <c r="G46" s="3">
+        <v>7656</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3">
+        <v>56516</v>
+      </c>
+      <c r="J46" s="6">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.7920000000012806</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1">
+        <v>1961</v>
+      </c>
+      <c r="B47" s="3">
+        <v>15303</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4178</v>
+      </c>
+      <c r="D47" s="3">
+        <v>63952</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3">
+        <v>33</v>
+      </c>
+      <c r="G47" s="3">
+        <v>12962</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3">
+        <v>51023</v>
+      </c>
+      <c r="J47" s="6">
+        <v>1.369</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="0"/>
+        <v>-16.065999999998894</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1">
+        <v>1962</v>
+      </c>
+      <c r="B48" s="3">
+        <v>15468</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5415</v>
+      </c>
+      <c r="D48" s="3">
+        <v>83761</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3">
+        <v>80</v>
+      </c>
+      <c r="G48" s="3">
+        <v>19995</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3">
+        <v>63846</v>
+      </c>
+      <c r="J48" s="6">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.7799999999988358</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1">
+        <v>1963</v>
+      </c>
+      <c r="B49" s="3">
+        <v>15678</v>
+      </c>
+      <c r="C49" s="3">
+        <v>6125</v>
+      </c>
+      <c r="D49" s="3">
+        <v>96030</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <v>17347</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3">
+        <v>78695</v>
+      </c>
+      <c r="J49" s="6">
+        <v>1.974</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1">
+        <v>1964</v>
+      </c>
+      <c r="B50" s="3">
+        <v>16130</v>
+      </c>
+      <c r="C50" s="3">
+        <v>6293</v>
+      </c>
+      <c r="D50" s="3">
+        <v>101501</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3">
+        <v>27</v>
+      </c>
+      <c r="G50" s="3">
+        <v>13958</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3">
+        <v>87570</v>
+      </c>
+      <c r="J50" s="6">
+        <v>2.2040000000000002</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0899999999965075</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="3">
+        <v>15470</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5250</v>
+      </c>
+      <c r="D51" s="3">
+        <v>81221</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3">
+        <v>693</v>
+      </c>
+      <c r="G51" s="3">
+        <v>14384</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3">
+        <v>67530</v>
+      </c>
+      <c r="J51" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1">
+        <v>1965</v>
+      </c>
+      <c r="B52" s="3">
+        <v>16312</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6299</v>
+      </c>
+      <c r="D52" s="3">
+        <v>102754</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3">
+        <v>723</v>
+      </c>
+      <c r="G52" s="3">
+        <v>16358</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3">
+        <v>87119</v>
+      </c>
+      <c r="J52" s="6">
+        <v>2.0409999999999999</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.7119999999995343</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1">
+        <v>1966</v>
+      </c>
+      <c r="B53" s="3">
+        <v>17006</v>
+      </c>
+      <c r="C53" s="3">
+        <v>6348</v>
+      </c>
+      <c r="D53" s="3">
+        <v>107952</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3">
+        <v>35</v>
+      </c>
+      <c r="G53" s="3">
+        <v>16912</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3">
+        <v>91075</v>
+      </c>
+      <c r="J53" s="6">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="0"/>
+        <v>2.088000000003376</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1">
+        <v>1967</v>
+      </c>
+      <c r="B54" s="3">
+        <v>16202</v>
+      </c>
+      <c r="C54" s="3">
+        <v>9906</v>
+      </c>
+      <c r="D54" s="3">
+        <v>160504</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3">
+        <v>590</v>
+      </c>
+      <c r="G54" s="3">
+        <v>10710</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3">
+        <v>150384</v>
+      </c>
+      <c r="J54" s="6">
+        <v>3.2930000000000001</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.9880000000121072</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B55" s="3">
+        <v>17483</v>
+      </c>
+      <c r="C55" s="3">
+        <v>9757</v>
+      </c>
+      <c r="D55" s="3">
+        <v>170590</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3">
+        <v>569</v>
+      </c>
+      <c r="G55" s="9">
+        <v>22032</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="7">
+        <v>149127</v>
+      </c>
+      <c r="J55" s="6">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="0"/>
+        <v>-8.3690000000060536</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1">
+        <v>1969</v>
+      </c>
+      <c r="B56" s="3">
+        <v>15499</v>
+      </c>
+      <c r="C56" s="3">
+        <v>8718</v>
+      </c>
+      <c r="D56" s="3">
+        <v>135127</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3">
+        <v>340</v>
+      </c>
+      <c r="G56" s="3">
+        <v>14550</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3">
+        <v>120917</v>
+      </c>
+      <c r="J56" s="6">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="0"/>
+        <v>-6.7179999999934807</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="3">
+        <v>16500</v>
+      </c>
+      <c r="C57" s="3">
+        <v>8205</v>
+      </c>
+      <c r="D57" s="3">
+        <v>135385</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3">
+        <v>451</v>
+      </c>
+      <c r="G57" s="3">
+        <v>16115</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3">
+        <v>119719</v>
+      </c>
+      <c r="J57" s="6">
+        <v>2.617</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="0"/>
+        <v>-2.5</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q57" s="3">
+        <f>AVERAGE(B52:B56)</f>
+        <v>16500.400000000001</v>
+      </c>
+      <c r="R57" s="3">
+        <f>AVERAGE(C52:C56)</f>
+        <v>8205.6</v>
+      </c>
+      <c r="S57" s="3">
+        <f>AVERAGE(D52:D56)</f>
+        <v>135385.4</v>
+      </c>
+      <c r="U57" s="3">
+        <f>AVERAGE(F52:F56)</f>
+        <v>451.4</v>
+      </c>
+      <c r="V57" s="3">
+        <f>AVERAGE(G52:G56)</f>
+        <v>16112.4</v>
+      </c>
+      <c r="X57" s="3">
+        <f>AVERAGE(I52:I56)</f>
+        <v>119724.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1">
+        <v>1970</v>
+      </c>
+      <c r="B58" s="3">
+        <v>16737</v>
+      </c>
+      <c r="C58" s="3">
+        <v>8284</v>
+      </c>
+      <c r="D58" s="3">
+        <v>138651</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3">
+        <v>729</v>
+      </c>
+      <c r="G58" s="3">
+        <v>23620</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3">
+        <v>115760</v>
+      </c>
+      <c r="J58" s="6">
+        <v>2.2829999999999999</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.6920000000100117</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B59" s="3">
+        <v>21529</v>
+      </c>
+      <c r="C59" s="3">
+        <v>10522</v>
+      </c>
+      <c r="D59" s="3">
+        <v>226536</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3">
+        <v>3373</v>
+      </c>
+      <c r="G59" s="3">
+        <v>17509</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3">
+        <v>212401</v>
+      </c>
+      <c r="J59" s="6">
+        <v>4.0469999999999997</v>
+      </c>
+      <c r="M59" s="2">
+        <f t="shared" si="0"/>
+        <v>-7.8619999999937136</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1">
+        <v>1972</v>
+      </c>
+      <c r="B60" s="3">
+        <v>24621</v>
+      </c>
+      <c r="C60" s="3">
+        <v>10827</v>
+      </c>
+      <c r="D60" s="3">
+        <v>266573</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3">
+        <v>3513</v>
+      </c>
+      <c r="G60" s="3">
+        <v>25383</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3">
+        <v>244703</v>
+      </c>
+      <c r="J60" s="6">
+        <v>4.5060000000000002</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="0"/>
+        <v>-1.4330000000190921</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1">
+        <v>1973</v>
+      </c>
+      <c r="B61" s="3">
+        <v>25994</v>
+      </c>
+      <c r="C61" s="3">
+        <v>13138</v>
+      </c>
+      <c r="D61" s="3">
+        <v>341497</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3">
+        <v>562</v>
+      </c>
+      <c r="G61" s="3">
+        <v>46715</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3">
+        <v>295344</v>
+      </c>
+      <c r="J61" s="6">
+        <v>5.2590000000000003</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="0"/>
+        <v>12.172000000020489</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1">
+        <v>1974</v>
+      </c>
+      <c r="B62" s="3">
+        <v>25476</v>
+      </c>
+      <c r="C62" s="3">
+        <v>13192</v>
+      </c>
+      <c r="D62" s="3">
+        <v>336090</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3">
+        <v>140</v>
+      </c>
+      <c r="G62" s="3">
+        <v>45538</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3">
+        <v>290692</v>
+      </c>
+      <c r="J62" s="6">
+        <v>5.01</v>
+      </c>
+      <c r="M62" s="2">
+        <f t="shared" si="0"/>
+        <v>-10.608000000007451</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="3">
+        <v>22871</v>
+      </c>
+      <c r="C63" s="3">
+        <v>11450</v>
+      </c>
+      <c r="D63" s="3">
+        <v>261869</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3">
+        <v>1663</v>
+      </c>
+      <c r="G63" s="3">
+        <v>31753</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3">
+        <v>231779</v>
+      </c>
+      <c r="J63" s="6">
+        <v>4.266</v>
+      </c>
+      <c r="M63" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9500000000116415</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1">
+        <v>1975</v>
+      </c>
+      <c r="B64" s="3">
+        <v>20006</v>
+      </c>
+      <c r="C64" s="3">
+        <v>12150</v>
+      </c>
+      <c r="D64" s="3">
+        <v>243076</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3">
+        <v>317</v>
+      </c>
+      <c r="G64" s="3">
+        <v>35248</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3">
+        <v>208145</v>
+      </c>
+      <c r="J64" s="6">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="M64" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.1000000000058208</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B65" s="3">
+        <v>20700</v>
+      </c>
+      <c r="C65" s="3">
+        <v>13984</v>
+      </c>
+      <c r="D65" s="3">
+        <v>289460</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3">
+        <v>474</v>
+      </c>
+      <c r="G65" s="3">
+        <v>33038</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3">
+        <v>256896</v>
+      </c>
+      <c r="J65" s="6">
+        <v>4.157</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7999999999883585</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B66" s="3">
+        <v>21027</v>
+      </c>
+      <c r="C66" s="3">
+        <v>14996</v>
+      </c>
+      <c r="D66" s="3">
+        <v>315335</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3">
+        <v>672</v>
+      </c>
+      <c r="G66" s="3">
+        <v>37365</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3">
+        <v>278642</v>
+      </c>
+      <c r="J66" s="6">
+        <v>4.3739999999999997</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" si="0"/>
+        <v>-14.108000000007451</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B67" s="3">
+        <v>24002</v>
+      </c>
+      <c r="C67" s="3">
+        <v>14750</v>
+      </c>
+      <c r="D67" s="3">
+        <v>354021</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3">
+        <v>834</v>
+      </c>
+      <c r="G67" s="3">
+        <v>47831</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3">
+        <v>307024</v>
+      </c>
+      <c r="J67" s="6">
+        <v>4.68</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B68" s="3">
+        <v>26670</v>
+      </c>
+      <c r="C68" s="3">
+        <v>14448</v>
+      </c>
+      <c r="D68" s="3">
+        <v>385317</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3">
+        <v>1543</v>
+      </c>
+      <c r="G68" s="3">
+        <v>58469</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3">
+        <v>328391</v>
+      </c>
+      <c r="J68" s="6">
+        <v>4.8659999999999997</v>
+      </c>
+      <c r="M68" s="2">
+        <f t="shared" si="0"/>
+        <v>11.159999999974389</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="3">
+        <v>22481</v>
+      </c>
+      <c r="C69" s="3">
+        <v>14120</v>
+      </c>
+      <c r="D69" s="3">
+        <v>317442</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3">
+        <v>768</v>
+      </c>
+      <c r="G69" s="3">
+        <v>42390</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3">
+        <v>275820</v>
+      </c>
+      <c r="J69" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M69" s="2">
+        <f t="shared" ref="M69:M72" si="2">B69*C69/1000 -D69</f>
+        <v>-10.28000000002794</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B70" s="3">
+        <v>25563</v>
+      </c>
+      <c r="C70" s="3">
+        <v>14793</v>
+      </c>
+      <c r="D70" s="3">
+        <v>378165</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3">
+        <v>9385</v>
+      </c>
+      <c r="G70" s="3">
+        <v>58265</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="5">
+        <v>329285</v>
+      </c>
+      <c r="J70" s="6">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="M70" s="2">
+        <f t="shared" si="2"/>
+        <v>-11.541000000026543</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B71" s="3">
+        <v>22155</v>
+      </c>
+      <c r="C71" s="3">
+        <v>14861</v>
+      </c>
+      <c r="D71" s="3">
+        <v>329255</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3">
+        <v>1861</v>
+      </c>
+      <c r="G71" s="3">
+        <v>51175</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3">
+        <v>279941</v>
+      </c>
+      <c r="J71" s="6">
+        <v>3.931</v>
+      </c>
+      <c r="M71" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.5449999999837019</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B72" s="3">
+        <v>24795</v>
+      </c>
+      <c r="C72" s="3">
+        <v>17154</v>
+      </c>
+      <c r="D72" s="3">
+        <v>425342</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3">
+        <v>959</v>
+      </c>
+      <c r="G72" s="3">
+        <v>63471</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3">
+        <v>362830</v>
+      </c>
+      <c r="J72" s="6">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="M72" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.5700000000069849</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="J75" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFB0B7A-B39C-49F9-A352-0ECF94065A73}">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S53" sqref="S53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="22.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -4805,11 +4831,11 @@
         <v>3536</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="3">
-        <v>8111</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0.114</v>
+      <c r="I71" s="9">
+        <v>7098</v>
+      </c>
+      <c r="J71" s="10">
+        <v>0.1</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="2"/>
@@ -4817,7 +4843,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>-1013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -4898,10 +4924,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -6637,9 +6663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEB07D1-B8F3-46C3-8412-78714663CD2D}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6655,10 +6681,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -9182,10 +9208,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -11708,10 +11734,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -13338,10 +13364,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -15636,7 +15662,7 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+      <selection activeCell="V70" sqref="V70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15652,10 +15678,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -17320,8 +17346,8 @@
       <c r="C70" s="3">
         <v>12512</v>
       </c>
-      <c r="D70" s="3">
-        <v>1076</v>
+      <c r="D70" s="9">
+        <v>1550</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -17337,11 +17363,11 @@
       </c>
       <c r="M70" s="2">
         <f t="shared" si="2"/>
-        <v>3.1999999999925421E-2</v>
+        <v>-473.96800000000007</v>
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>-474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -17450,10 +17476,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -19178,10 +19204,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -21713,10 +21739,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -21999,7 +22025,7 @@
       <c r="I10" s="3">
         <v>32160</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>1.9390000000000001</v>
       </c>
       <c r="M10" s="2">
@@ -22415,7 +22441,7 @@
       <c r="I23" s="3">
         <v>63412</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="10">
         <v>3.1379999999999999</v>
       </c>
       <c r="M23" s="2">
@@ -24105,10 +24131,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -25517,7 +25543,7 @@
       <c r="I58" s="3">
         <v>288493</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="10">
         <v>5.6909999999999998</v>
       </c>
       <c r="M58" s="2">
@@ -26049,10 +26075,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
+      <c r="J1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -27479,7 +27505,7 @@
       <c r="I43" s="3">
         <v>212892</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <v>6.3140000000000001</v>
       </c>
       <c r="M43" s="2">
